--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
@@ -16,18 +16,18 @@
     <sheet name="cell_suspension" sheetId="7" r:id="rId7"/>
     <sheet name="lib_prep" sheetId="8" r:id="rId8"/>
     <sheet name="sequencing" sheetId="9" r:id="rId9"/>
-    <sheet name="file" sheetId="10" r:id="rId10"/>
-    <sheet name="analysis_derived_data" sheetId="11" r:id="rId11"/>
-    <sheet name="raw_data_processing" sheetId="12" r:id="rId12"/>
-    <sheet name="downstream_processing" sheetId="13" r:id="rId13"/>
-    <sheet name="data_availability_checklist" sheetId="14" r:id="rId14"/>
+    <sheet name="analysis_derived_data" sheetId="10" r:id="rId10"/>
+    <sheet name="raw_data_processing" sheetId="11" r:id="rId11"/>
+    <sheet name="downstream_processing" sheetId="12" r:id="rId12"/>
+    <sheet name="data_availability_checklist" sheetId="13" r:id="rId13"/>
+    <sheet name="file" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="553">
   <si>
     <t>key</t>
   </si>
@@ -50,10 +50,10 @@
     <t>version_tol_sc_rnaseq</t>
   </si>
   <si>
-    <t>Single-cell RNA Sequencing [Tree of Life (ToL)]</t>
-  </si>
-  <si>
-    <t>TBC tol_sc_rnaseq</t>
+    <t>Single-cell Ribonucleic Acid Sequencing ((scRNA-Seq) [Tree of Life (ToL)]</t>
+  </si>
+  <si>
+    <t>Ribonucleic Acid (RNA) sequencing to investigate the gene expression patterns of individual cells, following the Tree of Life (ToL) initiative, which applies Deoxyribonucleic acid (DNA) sequencing and cellular technologies to understand the origins and diversity of life on Earth.</t>
   </si>
   <si>
     <t>tol</t>
@@ -98,7 +98,7 @@
     <t>A detailed description of the project which includes research goals and experimental approach. Project description should be fewer than 300 words, such as an abstract from a grant application or publication.</t>
   </si>
   <si>
-    <t>e.g. This project explores the intricate details of single cells in the human body, focusing on their structure, function, and behavior. By studying individual cells, it aims to uncover how they contribute to overall health, disease progression, and human biology. This research can provide deeper insights into cellular processes, paving the way for advancements in medical treatments and personalised medicine.</t>
+    <t>e.g. This project explores the intricate details of single cells in the human body, focusing on their structure, function, and behaviour. By studying individual cells, it aims to uncover how they contribute to overall health, disease progression, and human biology. This research can provide deeper insights into cellular processes, paving the way for advancements in medical treatments and personalised medicine.</t>
   </si>
   <si>
     <t>The workflow or protocol followed during the study.</t>
@@ -140,12 +140,18 @@
     <t>Spatial Transcriptomics</t>
   </si>
   <si>
+    <t>orcid_id</t>
+  </si>
+  <si>
     <t>givenName</t>
   </si>
   <si>
     <t>familyName</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>affiliation</t>
   </si>
   <si>
@@ -155,25 +161,43 @@
     <t>funding</t>
   </si>
   <si>
+    <t>orcid_id (optional)</t>
+  </si>
+  <si>
+    <t>email (optional)</t>
+  </si>
+  <si>
     <t>funder (optional)</t>
   </si>
   <si>
     <t>funding (optional)</t>
   </si>
   <si>
-    <t>The first name of a Person.</t>
+    <t>A 16-digit number that uniquely identify researchers.</t>
+  </si>
+  <si>
+    <t>e.g. 0000-1234-5678-9012</t>
+  </si>
+  <si>
+    <t>A first name (or given name) is the personal name given to an individual conducting the study.</t>
   </si>
   <si>
     <t>e.g. Jane</t>
   </si>
   <si>
-    <t>The last name of a Person.</t>
+    <t>A last name (or surname) is the family name passed down from one generation to the next for the individual conducting the study.</t>
   </si>
   <si>
     <t>e.g. Doe</t>
   </si>
   <si>
-    <t>An organization that this person is affiliated with. For example, a school/university, a club, or a team.</t>
+    <t>A unique identifier used to send and receive electronic messages (emails) over the internet.</t>
+  </si>
+  <si>
+    <t>e.g. jane.doe@example.com</t>
+  </si>
+  <si>
+    <t>An organisation or institution that this person is associated with.</t>
   </si>
   <si>
     <t>e.g. University of Liverpool</t>
@@ -185,7 +209,7 @@
     <t>e.g. BBSRC</t>
   </si>
   <si>
-    <t>A Grant that directly or indirectly provide funding or sponsorship for this item.</t>
+    <t>A grant that directly or indirectly provides funding or sponsorship for the person to conduct the study.</t>
   </si>
   <si>
     <t>e.g. GRAK3489</t>
@@ -1220,10 +1244,350 @@
     <t>e.g. 75</t>
   </si>
   <si>
+    <t>file_derived_from</t>
+  </si>
+  <si>
+    <t>inferred_cell_type</t>
+  </si>
+  <si>
+    <t>post_analysis_cell_well_quality</t>
+  </si>
+  <si>
+    <t>other_derived_cell_attributes</t>
+  </si>
+  <si>
+    <t>file_derived_from (optional)</t>
+  </si>
+  <si>
+    <t>inferred_cell_type (optional)</t>
+  </si>
+  <si>
+    <t>post_analysis_cell_well_quality (optional)</t>
+  </si>
+  <si>
+    <t>other_derived_cell_attributes (optional)</t>
+  </si>
+  <si>
+    <t>The name of the file that was used to generate the analysis derived data.</t>
+  </si>
+  <si>
+    <t>e.g. file1_sequencing.json</t>
+  </si>
+  <si>
+    <t>Post analysis cell type or identity declaration based on expression profile or known gene function identified by the performer.</t>
+  </si>
+  <si>
+    <t>e.g. type II bipolar neuron</t>
+  </si>
+  <si>
+    <t>Performer defined measure of whether the read output
+from the cell was included in the sequencing analysis. For example, cells might be excluded if a threshold percentage of reads did not map to the genome or if pre-sequencing quality measures were not passed.</t>
+  </si>
+  <si>
+    <t>e.g. Passed</t>
+  </si>
+  <si>
+    <t>Any other cell level measurement or annotation as result of the analysis.</t>
+  </si>
+  <si>
+    <t>e.g. cluster</t>
+  </si>
+  <si>
+    <t>reference_genome</t>
+  </si>
+  <si>
+    <t>genome_annotation</t>
+  </si>
+  <si>
+    <t>annotation_filtering</t>
+  </si>
+  <si>
+    <t>genes_vs_exons</t>
+  </si>
+  <si>
+    <t>library_structure</t>
+  </si>
+  <si>
+    <t>mapping_and_demultiplexing_software</t>
+  </si>
+  <si>
+    <t>read_mapping_statistics</t>
+  </si>
+  <si>
+    <t>sequencing_saturation</t>
+  </si>
+  <si>
+    <t>umis_barcode_distribution_qc</t>
+  </si>
+  <si>
+    <t>cell_non_cell_filtering_strategy</t>
+  </si>
+  <si>
+    <t>other_quality_filters_applied</t>
+  </si>
+  <si>
+    <t>ambient_rna_qc</t>
+  </si>
+  <si>
+    <t>predicted_doublet_rate_qc</t>
+  </si>
+  <si>
+    <t>individual_organism_snp_demultiplexing</t>
+  </si>
+  <si>
+    <t>reference_genome (optional)</t>
+  </si>
+  <si>
+    <t>genome_annotation (optional)</t>
+  </si>
+  <si>
+    <t>annotation_filtering (optional)</t>
+  </si>
+  <si>
+    <t>genes_vs_exons (optional)</t>
+  </si>
+  <si>
+    <t>library_structure (optional)</t>
+  </si>
+  <si>
+    <t>mapping_and_demultiplexing_software (optional)</t>
+  </si>
+  <si>
+    <t>read_mapping_statistics (optional)</t>
+  </si>
+  <si>
+    <t>sequencing_saturation (optional)</t>
+  </si>
+  <si>
+    <t>umis_barcode_distribution_qc (optional)</t>
+  </si>
+  <si>
+    <t>cell_non_cell_filtering_strategy (optional)</t>
+  </si>
+  <si>
+    <t>other_quality_filters_applied (optional)</t>
+  </si>
+  <si>
+    <t>ambient_rna_qc (optional)</t>
+  </si>
+  <si>
+    <t>predicted_doublet_rate_qc (optional)</t>
+  </si>
+  <si>
+    <t>individual_organism_snp_demultiplexing (optional)</t>
+  </si>
+  <si>
+    <t>Indicate version and include stable link to genome data (or attach genome fasta file).</t>
+  </si>
+  <si>
+    <t>e.g. GRCh38, https://example.org/grch38.fa</t>
+  </si>
+  <si>
+    <t>Indicate version and include stable link. Also indicate if any modification to the original annotation has been applied (e.g. 3' UTR extension) and include modified annotation file employed in the analysis.</t>
+  </si>
+  <si>
+    <t>e.g. Ensembl v101, https://example.org/ensembl_v101.gtf</t>
+  </si>
+  <si>
+    <t>Indicate which features were filtered (i.e. protein coding, pseudo-genes, TCRs, etc.)</t>
+  </si>
+  <si>
+    <t>e.g. Filtered to include only protein-coding genes</t>
+  </si>
+  <si>
+    <t>Quantification using whole gene intervals or exons.</t>
+  </si>
+  <si>
+    <t>e.g. Exon quantification</t>
+  </si>
+  <si>
+    <t>seqspec format</t>
+  </si>
+  <si>
+    <t>e.g. Single-cell 3' library</t>
+  </si>
+  <si>
+    <t>Reads/UMI</t>
+  </si>
+  <si>
+    <t>e.g. Cell Ranger 6.0.0</t>
+  </si>
+  <si>
+    <t>Statistics of the Reads or Unique Molecular Identifier (UMI).</t>
+  </si>
+  <si>
+    <t>e.g. 80% reads mapped to reference</t>
+  </si>
+  <si>
+    <t>Depending on number of cells recovered (not targeted) and technology</t>
+  </si>
+  <si>
+    <t>e.g. 95% sequencing saturation</t>
+  </si>
+  <si>
+    <t>Show Unique Molecular Identifiers (UMIs) per barcode distribution and threshold applied</t>
+  </si>
+  <si>
+    <t>e.g. Threshold: 10 UMIs per barcode</t>
+  </si>
+  <si>
+    <t>Unique Molecular Identifier (UMI) threshold used to discriminate cells from non-cells. Description of algorithm (if any) and parameters used to determine cells or non-cells.</t>
+  </si>
+  <si>
+    <t>e.g. Threshold: 5 UMIs for cell detection</t>
+  </si>
+  <si>
+    <t>Cells/nuclei discarded based on % mitochondrial reads, % rRNA reads, etc.</t>
+  </si>
+  <si>
+    <t>e.g. Cells with &gt;20% mitochondrial reads discarded</t>
+  </si>
+  <si>
+    <t>Report % UMIs in background cell barcodes, and algorithm (if any) used to remove ambient RNA</t>
+  </si>
+  <si>
+    <t>e.g. Ambient RNA removed if &gt;5% UMIs in background barcodes</t>
+  </si>
+  <si>
+    <t>e.g. Predicted doublet rate: 1.5%</t>
+  </si>
+  <si>
+    <t>If carried out, show SNP partitioning quality (e.g. SNP UMAP embedding or covariance matrix), algorithm used</t>
+  </si>
+  <si>
+    <t>e.g. SNP UMAP embedding using CellSNP</t>
+  </si>
+  <si>
+    <t>clustering_algorithm_and_version</t>
+  </si>
+  <si>
+    <t>clustering_parameters</t>
+  </si>
+  <si>
+    <t>integration_batch_correction</t>
+  </si>
+  <si>
+    <t>clustering_algorithm_and_version (optional)</t>
+  </si>
+  <si>
+    <t>clustering_parameters (optional)</t>
+  </si>
+  <si>
+    <t>integration_batch_correction (optional)</t>
+  </si>
+  <si>
+    <t>If compared/integrated with existing datasets</t>
+  </si>
+  <si>
+    <t>e.g. Louvain 0.8.0</t>
+  </si>
+  <si>
+    <t>e.g. Resolution: 0.6, K-nearest neighbors: 10</t>
+  </si>
+  <si>
+    <t>e.g. Harmony v1.0</t>
+  </si>
+  <si>
+    <t>source_code</t>
+  </si>
+  <si>
+    <t>umi_count_matrix</t>
+  </si>
+  <si>
+    <t>ensembl_ids</t>
+  </si>
+  <si>
+    <t>functional_gene_annotations</t>
+  </si>
+  <si>
+    <t>protein_models</t>
+  </si>
+  <si>
+    <t>cell_metadata</t>
+  </si>
+  <si>
+    <t>cluster_level_normalised_expression_tables</t>
+  </si>
+  <si>
+    <t>other_resource_files</t>
+  </si>
+  <si>
+    <t>source_code (optional)</t>
+  </si>
+  <si>
+    <t>umi_count_matrix (optional)</t>
+  </si>
+  <si>
+    <t>ensembl_ids (optional)</t>
+  </si>
+  <si>
+    <t>functional_gene_annotations (optional)</t>
+  </si>
+  <si>
+    <t>protein_models (optional)</t>
+  </si>
+  <si>
+    <t>cell_metadata (optional)</t>
+  </si>
+  <si>
+    <t>cluster_level_normalised_expression_tables (optional)</t>
+  </si>
+  <si>
+    <t>other_resource_files (optional)</t>
+  </si>
+  <si>
+    <t>If any newly developed code/software has been used in the processing and downstream analysis of the dataset.</t>
+  </si>
+  <si>
+    <t>e.g. Source code is hosted on GitHub and includes custom algorithms for UMI count normalization. The repository can be found at: https://github.com/user/umi-normalization.</t>
+  </si>
+  <si>
+    <t>Gene x cell matrix with UMI counts for each gene in each cell.</t>
+  </si>
+  <si>
+    <t>e.g. The UMI count matrix is stored in a CSV file with gene IDs as rows (e.g., ENSG00000139618) and cell barcodes as columns (e.g., Cell_001, Cell_002). The matrix file is available at: https://example.com/umi_count_matrix.csv.</t>
+  </si>
+  <si>
+    <t>Gene or transcript names should be listed as Ensembl (or other standardized ID), with gene short names in metadata.</t>
+  </si>
+  <si>
+    <t>e.g. ENSG00000139618</t>
+  </si>
+  <si>
+    <t>Any functional annotation generated/used (gene names, GOs, structural domains, etc.).</t>
+  </si>
+  <si>
+    <t>e.g. Functional gene annotations, including Gene Ontology (GO) terms, are provided in the metadata. For example, the gene 'ENSG00000139618' (BRCA1) is annotated with the GO term 'GO:0003674' (DNA binding).</t>
+  </si>
+  <si>
+    <t>FASTA file with (or stable link to) the predicted proteins associated to genes in the UMI count matrix and matching IDs.</t>
+  </si>
+  <si>
+    <t>e.g. The protein sequences for genes are provided in a FASTA file available at: https://example.com/protein_models.fasta, where each protein sequence is linked to the corresponding gene ID.</t>
+  </si>
+  <si>
+    <t>Table mapping cell IDs to cluster/cell type/broad cell type annotations.</t>
+  </si>
+  <si>
+    <t>e.g. Cell metadata includes information such as cell type annotations ('Tumor', 'Normal') and experimental conditions ('Control', 'Treatment'). This data is available in a table at: https://example.com/cell_metadata.csv.</t>
+  </si>
+  <si>
+    <t>Expression tables that show normalised gene expression at the cluster or cell-type level.</t>
+  </si>
+  <si>
+    <t>e.g. Normalised gene expression data at the cluster level is provided in a tab-delimited text file. For example, gene 'ENSG00000139618' (BRCA1) has expression values for clusters: Cluster_1: 1200, Cluster_2: 900. The full expression table is available at: https://example.com/cluster_level_expression.csv.</t>
+  </si>
+  <si>
+    <t>Necessary to re-use and interpret the data. E.g. barcode information in complex, serial multiplexing protocols (clicktags).</t>
+  </si>
+  <si>
+    <t>e.g. Barcode information used in multiplexing protocols is provided in a separate file, which can be accessed at: https://example.com/barcode_data.csv.</t>
+  </si>
+  <si>
+    <t>lib_prep_id</t>
+  </si>
+  <si>
     <t>file_id</t>
-  </si>
-  <si>
-    <t>lib_prep_id</t>
   </si>
   <si>
     <t>read_1_file</t>
@@ -1314,7 +1678,7 @@
     <t>e.g. file001</t>
   </si>
   <si>
-    <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, etc.</t>
+    <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, archive etc.</t>
   </si>
   <si>
     <t>e.g. fastq</t>
@@ -1324,346 +1688,6 @@
   </si>
   <si>
     <t>e.g. filename1.txt</t>
-  </si>
-  <si>
-    <t>file_derived_from</t>
-  </si>
-  <si>
-    <t>inferred_cell_type</t>
-  </si>
-  <si>
-    <t>post_analysis_cell_well_quality</t>
-  </si>
-  <si>
-    <t>other_derived_cell_attributes</t>
-  </si>
-  <si>
-    <t>file_derived_from (optional)</t>
-  </si>
-  <si>
-    <t>inferred_cell_type (optional)</t>
-  </si>
-  <si>
-    <t>post_analysis_cell_well_quality (optional)</t>
-  </si>
-  <si>
-    <t>other_derived_cell_attributes (optional)</t>
-  </si>
-  <si>
-    <t>The name of the file that was used to generate the analysis derived data.</t>
-  </si>
-  <si>
-    <t>e.g. file1_sequencing.json</t>
-  </si>
-  <si>
-    <t>Post analysis cell type or identity declaration based on expression profile or known gene function identified by the performer.</t>
-  </si>
-  <si>
-    <t>e.g. type II bipolar neuron</t>
-  </si>
-  <si>
-    <t>Performer defined measure of whether the read output
-from the cell was included in the sequencing analysis. For example, cells might be excluded if a threshold percentage of reads did not map to the genome or if pre-sequencing quality measures were not passed.</t>
-  </si>
-  <si>
-    <t>e.g. Passed</t>
-  </si>
-  <si>
-    <t>Any other cell level measurement or annotation as result of the analysis.</t>
-  </si>
-  <si>
-    <t>e.g. cluster</t>
-  </si>
-  <si>
-    <t>reference_genome</t>
-  </si>
-  <si>
-    <t>genome_annotation</t>
-  </si>
-  <si>
-    <t>annotation_filtering</t>
-  </si>
-  <si>
-    <t>genes_vs_exons</t>
-  </si>
-  <si>
-    <t>library_structure</t>
-  </si>
-  <si>
-    <t>mapping_and_demultiplexing_software</t>
-  </si>
-  <si>
-    <t>read_mapping_statistics</t>
-  </si>
-  <si>
-    <t>sequencing_saturation</t>
-  </si>
-  <si>
-    <t>umis_barcode_distribution_qc</t>
-  </si>
-  <si>
-    <t>cell_non_cell_filtering_strategy</t>
-  </si>
-  <si>
-    <t>other_quality_filters_applied</t>
-  </si>
-  <si>
-    <t>ambient_rna_qc</t>
-  </si>
-  <si>
-    <t>predicted_doublet_rate_qc</t>
-  </si>
-  <si>
-    <t>individual_organism_snp_demultiplexing</t>
-  </si>
-  <si>
-    <t>reference_genome (optional)</t>
-  </si>
-  <si>
-    <t>genome_annotation (optional)</t>
-  </si>
-  <si>
-    <t>annotation_filtering (optional)</t>
-  </si>
-  <si>
-    <t>genes_vs_exons (optional)</t>
-  </si>
-  <si>
-    <t>library_structure (optional)</t>
-  </si>
-  <si>
-    <t>mapping_and_demultiplexing_software (optional)</t>
-  </si>
-  <si>
-    <t>read_mapping_statistics (optional)</t>
-  </si>
-  <si>
-    <t>sequencing_saturation (optional)</t>
-  </si>
-  <si>
-    <t>umis_barcode_distribution_qc (optional)</t>
-  </si>
-  <si>
-    <t>cell_non_cell_filtering_strategy (optional)</t>
-  </si>
-  <si>
-    <t>other_quality_filters_applied (optional)</t>
-  </si>
-  <si>
-    <t>ambient_rna_qc (optional)</t>
-  </si>
-  <si>
-    <t>predicted_doublet_rate_qc (optional)</t>
-  </si>
-  <si>
-    <t>individual_organism_snp_demultiplexing (optional)</t>
-  </si>
-  <si>
-    <t>Indicate version and include stable link to genome data (or attach genome fasta file).</t>
-  </si>
-  <si>
-    <t>e.g. GRCh38, https://example.org/grch38.fa</t>
-  </si>
-  <si>
-    <t>Indicate version and include stable link. Also indicate if any modification to the original annotation has been applied (e.g. 3' UTR extension) and include modified annotation file employed in the analysis.</t>
-  </si>
-  <si>
-    <t>e.g. Ensembl v101, https://example.org/ensembl_v101.gtf</t>
-  </si>
-  <si>
-    <t>Indicate which features were filtered (i.e. protein coding, pseudo-genes, TCRs, etc.)</t>
-  </si>
-  <si>
-    <t>e.g. Filtered to include only protein-coding genes</t>
-  </si>
-  <si>
-    <t>Quantification using whole gene intervals or exons.</t>
-  </si>
-  <si>
-    <t>e.g. Exon quantification</t>
-  </si>
-  <si>
-    <t>seqspec format</t>
-  </si>
-  <si>
-    <t>e.g. Single-cell 3' library</t>
-  </si>
-  <si>
-    <t>Reads/UMI</t>
-  </si>
-  <si>
-    <t>e.g. Cell Ranger 6.0.0</t>
-  </si>
-  <si>
-    <t>Statistics of the Reads or Unique Molecular Identifier (UMI).</t>
-  </si>
-  <si>
-    <t>e.g. 80% reads mapped to reference</t>
-  </si>
-  <si>
-    <t>Depending on number of cells recovered (not targeted) and technology</t>
-  </si>
-  <si>
-    <t>e.g. 95% sequencing saturation</t>
-  </si>
-  <si>
-    <t>Show Unique Molecular Identifiers (UMIs) per barcode distribution and threshold applied</t>
-  </si>
-  <si>
-    <t>e.g. Threshold: 10 UMIs per barcode</t>
-  </si>
-  <si>
-    <t>Unique Molecular Identifier (UMI) threshold used to discriminate cells from non-cells. Description of algorithm (if any) and parameters used to determine cells or non-cells.</t>
-  </si>
-  <si>
-    <t>e.g. Threshold: 5 UMIs for cell detection</t>
-  </si>
-  <si>
-    <t>Cells/nuclei discarded based on % mitochondrial reads, % rRNA reads, etc.</t>
-  </si>
-  <si>
-    <t>e.g. Cells with &gt;20% mitochondrial reads discarded</t>
-  </si>
-  <si>
-    <t>Report % UMIs in background cell barcodes, and algorithm (if any) used to remove ambient RNA</t>
-  </si>
-  <si>
-    <t>e.g. Ambient RNA removed if &gt;5% UMIs in background barcodes</t>
-  </si>
-  <si>
-    <t>e.g. Predicted doublet rate: 1.5%</t>
-  </si>
-  <si>
-    <t>If carried out, show SNP partitioning quality (e.g. SNP UMAP embedding or covariance matrix), algorithm used</t>
-  </si>
-  <si>
-    <t>e.g. SNP UMAP embedding using CellSNP</t>
-  </si>
-  <si>
-    <t>clustering_algorithm_and_version</t>
-  </si>
-  <si>
-    <t>clustering_parameters</t>
-  </si>
-  <si>
-    <t>integration_batch_correction</t>
-  </si>
-  <si>
-    <t>clustering_algorithm_and_version (optional)</t>
-  </si>
-  <si>
-    <t>clustering_parameters (optional)</t>
-  </si>
-  <si>
-    <t>integration_batch_correction (optional)</t>
-  </si>
-  <si>
-    <t>If compared/integrated with existing datasets</t>
-  </si>
-  <si>
-    <t>e.g. Louvain 0.8.0</t>
-  </si>
-  <si>
-    <t>e.g. Resolution: 0.6, K-nearest neighbors: 10</t>
-  </si>
-  <si>
-    <t>e.g. Harmony v1.0</t>
-  </si>
-  <si>
-    <t>source_code</t>
-  </si>
-  <si>
-    <t>umi_count_matrix</t>
-  </si>
-  <si>
-    <t>ensembl_ids</t>
-  </si>
-  <si>
-    <t>functional_gene_annotations</t>
-  </si>
-  <si>
-    <t>protein_models</t>
-  </si>
-  <si>
-    <t>cell_metadata</t>
-  </si>
-  <si>
-    <t>cluster_level_normalised_expression_tables</t>
-  </si>
-  <si>
-    <t>other_resource_files</t>
-  </si>
-  <si>
-    <t>source_code (optional)</t>
-  </si>
-  <si>
-    <t>umi_count_matrix (optional)</t>
-  </si>
-  <si>
-    <t>ensembl_ids (optional)</t>
-  </si>
-  <si>
-    <t>functional_gene_annotations (optional)</t>
-  </si>
-  <si>
-    <t>protein_models (optional)</t>
-  </si>
-  <si>
-    <t>cell_metadata (optional)</t>
-  </si>
-  <si>
-    <t>cluster_level_normalised_expression_tables (optional)</t>
-  </si>
-  <si>
-    <t>other_resource_files (optional)</t>
-  </si>
-  <si>
-    <t>If any newly developed code/software has been used in the processing and downstream analysis of the dataset.</t>
-  </si>
-  <si>
-    <t>e.g. Source code is hosted on GitHub and includes custom algorithms for UMI count normalization. The repository can be found at: https://github.com/user/umi-normalization.</t>
-  </si>
-  <si>
-    <t>Gene x cell matrix with UMI counts for each gene in each cell.</t>
-  </si>
-  <si>
-    <t>e.g. The UMI count matrix is stored in a CSV file with gene IDs as rows (e.g., ENSG00000139618) and cell barcodes as columns (e.g., Cell_001, Cell_002). The matrix file is available at: https://example.com/umi_count_matrix.csv.</t>
-  </si>
-  <si>
-    <t>Gene or transcript names should be listed as Ensembl (or other standardized ID), with gene short names in metadata.</t>
-  </si>
-  <si>
-    <t>e.g. The UMI count matrix includes genes identified by their Ensembl IDs, such as 'ENSG00000139618' for the BRCA1 gene. See the full list of Ensembl IDs in the metadata file.</t>
-  </si>
-  <si>
-    <t>Any functional annotation generated/used (gene names, GOs, structural domains, etc.).</t>
-  </si>
-  <si>
-    <t>e.g. Functional gene annotations, including Gene Ontology (GO) terms, are provided in the metadata. For example, the gene 'ENSG00000139618' (BRCA1) is annotated with the GO term 'GO:0003674' (DNA binding).</t>
-  </si>
-  <si>
-    <t>FASTA file with (or stable link to) the predicted proteins associated to genes in the UMI count matrix and matching IDs.</t>
-  </si>
-  <si>
-    <t>e.g. The protein sequences for genes are provided in a FASTA file available at: https://example.com/protein_models.fasta, where each protein sequence is linked to the corresponding gene ID.</t>
-  </si>
-  <si>
-    <t>Table mapping cell IDs to cluster/cell type/broad cell type annotations.</t>
-  </si>
-  <si>
-    <t>e.g. Cell metadata includes information such as cell type annotations ('Tumor', 'Normal') and experimental conditions ('Control', 'Treatment'). This data is available in a table at: https://example.com/cell_metadata.csv.</t>
-  </si>
-  <si>
-    <t>Expression tables that show normalised gene expression at the cluster or cell-type level.</t>
-  </si>
-  <si>
-    <t>e.g. Normalised gene expression data at the cluster level is provided in a tab-delimited text file. For example, gene 'ENSG00000139618' (BRCA1) has expression values for clusters: Cluster_1: 1200, Cluster_2: 900. The full expression table is available at: https://example.com/cluster_level_expression.csv.</t>
-  </si>
-  <si>
-    <t>Necessary to re-use and interpret the data. E.g. barcode information in complex, serial multiplexing protocols (clicktags).</t>
-  </si>
-  <si>
-    <t>e.g. Barcode information used in multiplexing protocols is provided in a separate file, which can be accessed at: https://example.com/barcode_data.csv.</t>
   </si>
 </sst>
 </file>
@@ -2055,8 +2079,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="243.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2103,198 +2127,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="9936" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E47E" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="193.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="195.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="88.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="126.42578125" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="D432" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A4:N4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A1:N4">
-    <cfRule type="notContainsErrors" dxfId="0" priority="1">
-      <formula>NOT(ISERROR(A1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2314,16 +2152,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2331,16 +2169,16 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2348,16 +2186,16 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2370,7 +2208,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C20D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A671" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2391,7 +2229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -2421,46 +2259,46 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2468,46 +2306,46 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2515,46 +2353,46 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2577,7 +2415,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="990E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CB72" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2590,7 +2428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2607,13 +2445,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2621,13 +2459,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2635,13 +2473,13 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2653,7 +2491,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A5A0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DF7F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2666,7 +2504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -2676,7 +2514,7 @@
   <cols>
     <col min="1" max="1" width="154.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="198.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="152.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="187.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="170.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="191.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -2686,80 +2524,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2775,11 +2613,197 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B847" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A1AA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:H4">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="193.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="195.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="126.42578125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="F669" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:N4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:N4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -2864,7 +2888,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E6F8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D60C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2902,10 +2926,10 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="4:7">
@@ -2913,10 +2937,10 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="4:7">
@@ -2924,10 +2948,10 @@
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="4:7">
@@ -2935,10 +2959,10 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="4:7">
@@ -2946,10 +2970,10 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="4:7">
@@ -2957,10 +2981,10 @@
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="4:7">
@@ -2968,10 +2992,10 @@
         <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="4:7">
@@ -2979,546 +3003,546 @@
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="4:7">
       <c r="F13" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="4:7">
       <c r="F14" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="4:7">
       <c r="F15" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="4:7">
       <c r="F16" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G24" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G28" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G32" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G35" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G36" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G37" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G38" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G39" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G40" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="G41" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G42" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="G43" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G44" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G45" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G46" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="G47" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G48" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G49" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G50" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G51" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G52" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G53" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G54" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G55" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G56" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G57" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="6:7">
       <c r="F58" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G58" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="6:7">
       <c r="F59" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G59" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="6:7">
       <c r="F60" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G60" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="6:7">
       <c r="F61" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G61" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="6:7">
       <c r="F62" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G62" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="6:7">
       <c r="F63" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G63" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="6:7">
       <c r="F64" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G64" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="6:7">
       <c r="F65" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G65" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="6:7">
       <c r="F66" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G66" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="6:7">
       <c r="F67" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G67" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="6:7">
       <c r="F68" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G68" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="6:7">
       <c r="F69" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G69" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="6:7">
       <c r="F70" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G70" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="6:7">
       <c r="F71" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G71" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="6:7">
       <c r="F72" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G72" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="6:7">
       <c r="F73" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="G73" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="6:7">
       <c r="F74" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G74" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="6:7">
       <c r="F75" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G75" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="6:7">
       <c r="F76" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G76" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="6:7">
       <c r="F77" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G77" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="6:7">
       <c r="F78" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G78" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="6:7">
       <c r="F79" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G79" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3528,71 +3552,101 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="90.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>54</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>55</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -3600,13 +3654,16 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D58B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DCEC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:E4">
+  <conditionalFormatting sqref="A1:H4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -3643,99 +3700,99 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3743,49 +3800,49 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3809,7 +3866,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E9ED" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9D51" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3859,34 +3916,34 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3894,34 +3951,34 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3929,34 +3986,34 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3975,7 +4032,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FC7F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C06E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4022,46 +4079,46 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4069,46 +4126,46 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4116,46 +4173,46 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4178,7 +4235,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E425" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="87B3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -4240,79 +4297,79 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -4320,79 +4377,79 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4400,79 +4457,79 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -4506,7 +4563,7 @@
       <c r="Z4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AFB6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9A14" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Z4"/>
   </mergeCells>
@@ -4570,43 +4627,43 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4614,43 +4671,43 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4658,43 +4715,43 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4716,7 +4773,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FA50" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F186" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
@@ -2127,7 +2127,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E47E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B4C5" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2208,7 +2208,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A671" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8775" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2415,7 +2415,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CB72" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AACD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2491,7 +2491,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DF7F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D5F0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2613,7 +2613,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A1AA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A9BA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2799,7 +2799,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F669" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FCCC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -2888,7 +2888,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D60C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="97D9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3659,7 +3659,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DCEC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AB3A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3866,7 +3866,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9D51" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D0F8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -4032,7 +4032,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C06E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F581" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4235,7 +4235,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="87B3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EF5C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -4563,7 +4563,7 @@
       <c r="Z4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9A14" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C8B2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Z4"/>
   </mergeCells>
@@ -4773,7 +4773,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F186" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="800E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
@@ -2127,7 +2127,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B4C5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E5EA" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2208,7 +2208,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8775" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C668" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2415,7 +2415,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AACD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9BA8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2491,7 +2491,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D5F0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CEA6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2613,7 +2613,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A9BA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9999" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2799,7 +2799,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FCCC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C511" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -2888,7 +2888,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="97D9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E541" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3659,7 +3659,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AB3A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B163" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3866,7 +3866,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D0F8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A382" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -4032,7 +4032,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F581" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B1E0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4235,7 +4235,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EF5C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8543" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -4563,7 +4563,7 @@
       <c r="Z4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C8B2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CC4A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Z4"/>
   </mergeCells>
@@ -4773,7 +4773,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="800E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C27C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="554">
   <si>
     <t>key</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Single-cell Ribonucleic Acid Sequencing ((scRNA-Seq) [Tree of Life (ToL)]</t>
   </si>
   <si>
-    <t>Ribonucleic Acid (RNA) sequencing to investigate the gene expression patterns of individual cells, following the Tree of Life (ToL) initiative, which applies Deoxyribonucleic acid (DNA) sequencing and cellular technologies to understand the origins and diversity of life on Earth.</t>
+    <t>For single cell RNA-seq studies, using Tree of Life metadata, aimed at understanding the origins and diversity of life on Earth.</t>
   </si>
   <si>
     <t>tol</t>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>Holdfast Fungi</t>
+  </si>
+  <si>
+    <t>Inflorescence</t>
   </si>
   <si>
     <t>Intestine</t>
@@ -2080,7 +2083,7 @@
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="243.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2127,7 +2130,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E5EA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D9B7" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2152,16 +2155,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2169,16 +2172,16 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2186,16 +2189,16 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2208,7 +2211,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C668" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A5F6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2259,46 +2262,46 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2306,46 +2309,46 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2353,46 +2356,46 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2415,7 +2418,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9BA8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FA80" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2445,13 +2448,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2459,13 +2462,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2473,13 +2476,13 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2491,7 +2494,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CEA6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CD51" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2524,80 +2527,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2613,7 +2616,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9999" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8275" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2653,43 +2656,43 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2697,43 +2700,43 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2741,43 +2744,43 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2799,7 +2802,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C511" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8C91" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -2888,7 +2891,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E541" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D4C9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2911,7 +2914,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D5:G79"/>
+  <dimension ref="D5:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3543,6 +3546,14 @@
       </c>
       <c r="G79" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7">
+      <c r="F80" t="s">
+        <v>193</v>
+      </c>
+      <c r="G80" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3659,7 +3670,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B163" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ABEE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3866,7 +3877,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="86B7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3877,10 +3888,10 @@
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
-      <formula1>HiddenDropdowns!$F$5:$F$79</formula1>
+      <formula1>HiddenDropdowns!$F$5:$F$80</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="G5:G1005">
-      <formula1>HiddenDropdowns!$G$5:$G$79</formula1>
+      <formula1>HiddenDropdowns!$G$5:$G$80</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="H5:H1005">
       <formula1>"Air Dried,Dry Ice,Ethanol/Dry Ice Slurry,Lyophilised,Not Applicable,Not Collected,Not Provided,Other,Rnalater,Snap Frozen"</formula1>
@@ -3916,34 +3927,34 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3951,34 +3962,34 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3986,34 +3997,34 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4032,7 +4043,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B1E0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B11A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4043,7 +4054,7 @@
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
-      <formula1>"10X Nuclei Isolation Kit,3' Standard Throughput Kit"</formula1>
+      <formula1>"10X Nuclei Isolation Kit,3' Standard Throughput Kit,Custom"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4082,43 +4093,43 @@
         <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4126,46 +4137,46 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4173,46 +4184,46 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4235,7 +4246,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8543" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C052" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -4297,79 +4308,79 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -4377,79 +4388,79 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -4457,79 +4468,79 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -4563,7 +4574,7 @@
       <c r="Z4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CC4A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BDDF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Z4"/>
   </mergeCells>
@@ -4627,43 +4638,43 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4671,43 +4682,43 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4715,43 +4726,43 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4773,7 +4784,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C27C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A3CE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
@@ -2130,7 +2130,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D9B7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CEDC" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2211,7 +2211,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A5F6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EAF5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2418,7 +2418,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FA80" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DA3F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2494,7 +2494,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CD51" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C067" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2616,7 +2616,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8275" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ACD0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2802,7 +2802,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8C91" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="91AB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -2891,7 +2891,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D4C9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F9D1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3670,7 +3670,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ABEE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C7D6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3877,7 +3877,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="86B7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F56F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -4043,7 +4043,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B11A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="98B4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4246,7 +4246,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C052" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9841" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -4574,7 +4574,7 @@
       <c r="Z4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BDDF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D7B2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Z4"/>
   </mergeCells>
@@ -4784,7 +4784,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A3CE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="89F4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="676">
   <si>
     <t>key</t>
   </si>
@@ -104,7 +104,7 @@
     <t>The workflow or protocol followed during the study.</t>
   </si>
   <si>
-    <t>e.g. spatial_transcriptomics</t>
+    <t>e.g. Laser microdissection</t>
   </si>
   <si>
     <t>The sorting or visualisation technology used.</t>
@@ -218,9 +218,6 @@
     <t>sample_id</t>
   </si>
   <si>
-    <t>organism</t>
-  </si>
-  <si>
     <t>scientific_name</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t>taxon_id</t>
   </si>
   <si>
-    <t>organism (optional)</t>
-  </si>
-  <si>
     <t>scientific_name (optional)</t>
   </si>
   <si>
@@ -398,6 +392,9 @@
     <t>Bodywall</t>
   </si>
   <si>
+    <t>Bone Marrow Hematopoietic Niches</t>
+  </si>
+  <si>
     <t>Bract</t>
   </si>
   <si>
@@ -413,6 +410,18 @@
     <t>Cephalothorax</t>
   </si>
   <si>
+    <t>Cortex Development In Roots</t>
+  </si>
+  <si>
+    <t>Developing Brain</t>
+  </si>
+  <si>
+    <t>Developing Embryo</t>
+  </si>
+  <si>
+    <t>Developing Seed Coat</t>
+  </si>
+  <si>
     <t>Dna Extract</t>
   </si>
   <si>
@@ -422,6 +431,9 @@
     <t>Eggshell</t>
   </si>
   <si>
+    <t>Embryonic Stem Cells</t>
+  </si>
+  <si>
     <t>Endocrine Tissue</t>
   </si>
   <si>
@@ -434,12 +446,30 @@
     <t>Fat Body</t>
   </si>
   <si>
+    <t>Fetal Heart</t>
+  </si>
+  <si>
+    <t>Fetal Kidney</t>
+  </si>
+  <si>
+    <t>Fetal Liver</t>
+  </si>
+  <si>
+    <t>Fetal Lung</t>
+  </si>
+  <si>
     <t>Fin</t>
   </si>
   <si>
+    <t>Floral Meristem</t>
+  </si>
+  <si>
     <t>Flower</t>
   </si>
   <si>
+    <t>Gastrulation-Stage Embryo</t>
+  </si>
+  <si>
     <t>Gill Animal</t>
   </si>
   <si>
@@ -449,6 +479,9 @@
     <t>Gonad</t>
   </si>
   <si>
+    <t>Gut</t>
+  </si>
+  <si>
     <t>Hair</t>
   </si>
   <si>
@@ -464,6 +497,9 @@
     <t>Holdfast Fungi</t>
   </si>
   <si>
+    <t>Hypocotyl</t>
+  </si>
+  <si>
     <t>Inflorescence</t>
   </si>
   <si>
@@ -476,9 +512,15 @@
     <t>Leaf</t>
   </si>
   <si>
+    <t>Leaf Primordia</t>
+  </si>
+  <si>
     <t>Leg</t>
   </si>
   <si>
+    <t>Limb Bud</t>
+  </si>
+  <si>
     <t>Liver</t>
   </si>
   <si>
@@ -506,6 +548,15 @@
     <t>Mycorrhiza</t>
   </si>
   <si>
+    <t>Neonatal Retina</t>
+  </si>
+  <si>
+    <t>Neural Crest Cells</t>
+  </si>
+  <si>
+    <t>Nodules</t>
+  </si>
+  <si>
     <t>Not Applicable</t>
   </si>
   <si>
@@ -515,6 +566,9 @@
     <t>Not Provided</t>
   </si>
   <si>
+    <t>Olfactory Epithelium</t>
+  </si>
+  <si>
     <t>Other Fungal Tissue</t>
   </si>
   <si>
@@ -533,18 +587,36 @@
     <t>Oviduct</t>
   </si>
   <si>
+    <t>Ovule Primordium</t>
+  </si>
+  <si>
     <t>Pancreas</t>
   </si>
   <si>
     <t>Petiole</t>
   </si>
   <si>
+    <t>Placental Trophoblast Cells</t>
+  </si>
+  <si>
+    <t>Pollen Mother Cells</t>
+  </si>
+  <si>
     <t>Posterior Body</t>
   </si>
   <si>
+    <t>Postnatal Thymus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhizome Meristem </t>
+  </si>
+  <si>
     <t>Root</t>
   </si>
   <si>
+    <t>Root Apical Meristem</t>
+  </si>
+  <si>
     <t>Scales</t>
   </si>
   <si>
@@ -560,9 +632,15 @@
     <t>Shoot</t>
   </si>
   <si>
+    <t>Shoot Apical Meristem</t>
+  </si>
+  <si>
     <t>Skin</t>
   </si>
   <si>
+    <t>Somitic Mesoderm</t>
+  </si>
+  <si>
     <t>Sperm Seminal Fluid</t>
   </si>
   <si>
@@ -602,9 +680,15 @@
     <t>Thorax</t>
   </si>
   <si>
+    <t>Trichome Precursor Cells</t>
+  </si>
+  <si>
     <t>Unicellular Organisms In Culture</t>
   </si>
   <si>
+    <t>Vascular Cambium</t>
+  </si>
+  <si>
     <t>Whole Organism</t>
   </si>
   <si>
@@ -830,13 +914,13 @@
     <t>e.g. 10</t>
   </si>
   <si>
-    <t>The volume of the cell suspension in microlitres.</t>
+    <t>The volume of the cell suspension in microlitres (µL).</t>
   </si>
   <si>
     <t>e.g. 100</t>
   </si>
   <si>
-    <t>The concentration of cells in the suspension.</t>
+    <t>The concentration of cells in the suspension in microlitres (µL).</t>
   </si>
   <si>
     <t>e.g. 1000</t>
@@ -929,6 +1013,9 @@
     <t>cell_phenotype</t>
   </si>
   <si>
+    <t>design_description</t>
+  </si>
+  <si>
     <t>amplification_method (optional)</t>
   </si>
   <si>
@@ -971,6 +1058,9 @@
     <t>cell_phenotype (optional)</t>
   </si>
   <si>
+    <t>design_description (optional)</t>
+  </si>
+  <si>
     <t>A unique alphanumeric reference or identifier for the library preparation protocol used during the sequencing.</t>
   </si>
   <si>
@@ -1118,6 +1208,12 @@
     <t>e.g. CD41-</t>
   </si>
   <si>
+    <t>The design of the library including details of how it was constructed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g. </t>
+  </si>
+  <si>
     <t>sequencing_id</t>
   </si>
   <si>
@@ -1245,6 +1341,255 @@
   </si>
   <si>
     <t>e.g. 75</t>
+  </si>
+  <si>
+    <t>454 Gs</t>
+  </si>
+  <si>
+    <t>454 Gs 20</t>
+  </si>
+  <si>
+    <t>454 Gs Flx</t>
+  </si>
+  <si>
+    <t>454 Gs Flx Titanium</t>
+  </si>
+  <si>
+    <t>454 Gs Flx+</t>
+  </si>
+  <si>
+    <t>454 Gs Junior</t>
+  </si>
+  <si>
+    <t>Ab 310 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3130 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3130Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3500 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3500Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3730 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3730Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 5500 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 5500Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 5500Xl-W Genetic Analysis System</t>
+  </si>
+  <si>
+    <t>Ab Solid 3 Plus System</t>
+  </si>
+  <si>
+    <t>Ab Solid 4 System</t>
+  </si>
+  <si>
+    <t>Ab Solid 4Hq System</t>
+  </si>
+  <si>
+    <t>Ab Solid Pi System</t>
+  </si>
+  <si>
+    <t>Ab Solid System</t>
+  </si>
+  <si>
+    <t>Ab Solid System 2.0</t>
+  </si>
+  <si>
+    <t>Ab Solid System 3.0</t>
+  </si>
+  <si>
+    <t>Bgiseq-50</t>
+  </si>
+  <si>
+    <t>Bgiseq-500</t>
+  </si>
+  <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>Dnbseq-G400</t>
+  </si>
+  <si>
+    <t>Dnbseq-G400 Fast</t>
+  </si>
+  <si>
+    <t>Dnbseq-G50</t>
+  </si>
+  <si>
+    <t>Dnbseq-T10X4Rs</t>
+  </si>
+  <si>
+    <t>Dnbseq-T7</t>
+  </si>
+  <si>
+    <t>Element Aviti</t>
+  </si>
+  <si>
+    <t>Fastaseq 300</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>Genius</t>
+  </si>
+  <si>
+    <t>Genocare 1600</t>
+  </si>
+  <si>
+    <t>Genolab M</t>
+  </si>
+  <si>
+    <t>Gridion</t>
+  </si>
+  <si>
+    <t>Gs111</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer Ii</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer Iix</t>
+  </si>
+  <si>
+    <t>Illumina Hiscansq</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 1000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 1500</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 2000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 2500</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 3000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 4000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq X</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq X Five</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq X Ten</t>
+  </si>
+  <si>
+    <t>Illumina Iseq 100</t>
+  </si>
+  <si>
+    <t>Illumina Miniseq</t>
+  </si>
+  <si>
+    <t>Illumina Miseq</t>
+  </si>
+  <si>
+    <t>Illumina Nextseq 500</t>
+  </si>
+  <si>
+    <t>Illumina Nextseq 550</t>
+  </si>
+  <si>
+    <t>Illumina Novaseq 6000</t>
+  </si>
+  <si>
+    <t>Illumina Novaseq X</t>
+  </si>
+  <si>
+    <t>Illumina Novaseq X Plus</t>
+  </si>
+  <si>
+    <t>Ion Genestudio S5</t>
+  </si>
+  <si>
+    <t>Ion Genestudio S5 Plus</t>
+  </si>
+  <si>
+    <t>Ion Genestudio S5 Prime</t>
+  </si>
+  <si>
+    <t>Ion Torrent Genexus</t>
+  </si>
+  <si>
+    <t>Ion Torrent Pgm</t>
+  </si>
+  <si>
+    <t>Ion Torrent Proton</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5 Xl</t>
+  </si>
+  <si>
+    <t>Mgiseq-2000Rs</t>
+  </si>
+  <si>
+    <t>Minion</t>
+  </si>
+  <si>
+    <t>Nextseq 1000</t>
+  </si>
+  <si>
+    <t>Nextseq 2000</t>
+  </si>
+  <si>
+    <t>Onso</t>
+  </si>
+  <si>
+    <t>Pacbio Rs</t>
+  </si>
+  <si>
+    <t>Pacbio Rs Ii</t>
+  </si>
+  <si>
+    <t>Promethion</t>
+  </si>
+  <si>
+    <t>Revio</t>
+  </si>
+  <si>
+    <t>Sentosa Sq301</t>
+  </si>
+  <si>
+    <t>Sequel</t>
+  </si>
+  <si>
+    <t>Sequel Ii</t>
+  </si>
+  <si>
+    <t>Sequel Iie</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
+  </si>
+  <si>
+    <t>Ug 100</t>
   </si>
   <si>
     <t>file_derived_from</t>
@@ -1605,10 +1950,16 @@
     <t>index_2_file</t>
   </si>
   <si>
-    <t>read_checksum</t>
-  </si>
-  <si>
-    <t>index_checksum</t>
+    <t>read_1_checksum</t>
+  </si>
+  <si>
+    <t>read_2_checksum</t>
+  </si>
+  <si>
+    <t>index_1_checksum</t>
+  </si>
+  <si>
+    <t>index_2_checksum</t>
   </si>
   <si>
     <t>white_list_barcode_file</t>
@@ -1623,6 +1974,18 @@
     <t>expression_data_file</t>
   </si>
   <si>
+    <t>read_2_file (optional)</t>
+  </si>
+  <si>
+    <t>index_1_file (optional)</t>
+  </si>
+  <si>
+    <t>read_2_checksum (optional)</t>
+  </si>
+  <si>
+    <t>index_2_checksum (optional)</t>
+  </si>
+  <si>
     <t>white_list_barcode_file (optional)</t>
   </si>
   <si>
@@ -1656,16 +2019,19 @@
     <t>e.g. file2_i2.fastq.gz</t>
   </si>
   <si>
-    <t>Result of a hash function calculated on the content of both the read 1 file and the read 2 file to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
-  </si>
-  <si>
-    <t>e.g. d41d8cd98f00b204e9800998ecf8427e,5a105e8b9d40e1329780d62ea2265d8a77a1a45e</t>
-  </si>
-  <si>
-    <t>Result of a hash function calculated on the content of both the index 1 file and the index 2 file to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
-  </si>
-  <si>
-    <t>e.g. d3486ae9136e7856bc42212385ea797094475802,b7e23ec29af22b0b4e41da31e868d57226121c84</t>
+    <t>Result of a hash function calculated on the content of the read 1 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>e.g. d41d8cd98f00b204e9800998ecf8427e</t>
+  </si>
+  <si>
+    <t>Result of a hash function calculated on the content of the read 2 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>Result of a hash function calculated on the content of  the index 1 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>Result of a hash function calculated on the content of  the index 2 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
   </si>
   <si>
     <t>A file containing the known cell barcodes in the
@@ -2130,7 +2496,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CEDC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9F76" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2155,16 +2521,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>410</v>
+        <v>525</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>411</v>
+        <v>526</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>412</v>
+        <v>527</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>413</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2172,16 +2538,16 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>414</v>
+        <v>529</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>416</v>
+        <v>531</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>418</v>
+        <v>533</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>420</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2189,16 +2555,16 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>417</v>
+        <v>532</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>419</v>
+        <v>534</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>421</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2211,7 +2577,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EAF5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A805" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2262,46 +2628,46 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>436</v>
+        <v>551</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>437</v>
+        <v>552</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>438</v>
+        <v>553</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>439</v>
+        <v>554</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>440</v>
+        <v>555</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>441</v>
+        <v>556</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>442</v>
+        <v>557</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>443</v>
+        <v>558</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>444</v>
+        <v>559</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>445</v>
+        <v>560</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>446</v>
+        <v>561</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>447</v>
+        <v>562</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>448</v>
+        <v>563</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>449</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2309,46 +2675,46 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>450</v>
+        <v>565</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>452</v>
+        <v>567</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>454</v>
+        <v>569</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>456</v>
+        <v>571</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>458</v>
+        <v>573</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>460</v>
+        <v>575</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>462</v>
+        <v>577</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>464</v>
+        <v>579</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>466</v>
+        <v>581</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>468</v>
+        <v>583</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>470</v>
+        <v>585</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>472</v>
+        <v>587</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>464</v>
+        <v>579</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>475</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2356,46 +2722,46 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>451</v>
+        <v>566</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>453</v>
+        <v>568</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>455</v>
+        <v>570</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>457</v>
+        <v>572</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>459</v>
+        <v>574</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>461</v>
+        <v>576</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>463</v>
+        <v>578</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>465</v>
+        <v>580</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>467</v>
+        <v>582</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>469</v>
+        <v>584</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>471</v>
+        <v>586</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>473</v>
+        <v>588</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>474</v>
+        <v>589</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>476</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2418,7 +2784,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DA3F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A4BF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2448,13 +2814,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>480</v>
+        <v>595</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>481</v>
+        <v>596</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>482</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2462,13 +2828,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>483</v>
+        <v>598</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>483</v>
+        <v>598</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>483</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2476,13 +2842,13 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>484</v>
+        <v>599</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>485</v>
+        <v>600</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>486</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2494,7 +2860,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C067" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EB91" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2527,80 +2893,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>495</v>
+        <v>610</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>496</v>
+        <v>611</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>497</v>
+        <v>612</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>498</v>
+        <v>613</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>499</v>
+        <v>614</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>500</v>
+        <v>615</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>501</v>
+        <v>616</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>502</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>503</v>
+        <v>618</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>505</v>
+        <v>620</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>507</v>
+        <v>622</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>509</v>
+        <v>624</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>511</v>
+        <v>626</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>513</v>
+        <v>628</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>515</v>
+        <v>630</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>517</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>504</v>
+        <v>619</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>506</v>
+        <v>621</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>508</v>
+        <v>623</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>510</v>
+        <v>625</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>512</v>
+        <v>627</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>514</v>
+        <v>629</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>516</v>
+        <v>631</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>518</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2616,7 +2982,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ACD0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8647" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2631,7 +2997,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2643,147 +3009,165 @@
     <col min="4" max="4" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="193.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="195.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="126.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="172.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="174.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="126.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>519</v>
+        <v>634</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>520</v>
+        <v>635</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>523</v>
+        <v>636</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>524</v>
+        <v>639</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>640</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>533</v>
+        <v>654</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>534</v>
+        <v>655</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>536</v>
+        <v>657</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>538</v>
+        <v>659</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>540</v>
+        <v>661</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>542</v>
+        <v>663</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>544</v>
+        <v>665</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>546</v>
+        <v>666</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>548</v>
+        <v>667</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>550</v>
+        <v>668</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>670</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>535</v>
+        <v>656</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>537</v>
+        <v>658</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>539</v>
+        <v>660</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>541</v>
+        <v>662</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>543</v>
+        <v>664</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>545</v>
+        <v>664</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>547</v>
+        <v>664</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>549</v>
+        <v>664</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>551</v>
+        <v>669</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>671</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -2800,13 +3184,15 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="91AB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9675" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A4:P4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:N4">
+  <conditionalFormatting sqref="A1:P4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -2891,7 +3277,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F9D1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="84FF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2900,12 +3286,9 @@
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
       <formula1>HiddenDropdowns!$D$5:$D$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
-      <formula1>"10X,10X 3',Mas Seq,Smartseq,Vizgen"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2914,646 +3297,1111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D5:G80"/>
+  <dimension ref="D5:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:7">
+    <row r="5" spans="4:6">
       <c r="D5" t="s">
-        <v>29</v>
+        <v>438</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
       </c>
       <c r="F5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E7" t="s">
         <v>118</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="4:7">
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
+    <row r="8" spans="4:6">
+      <c r="D8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E8" t="s">
         <v>119</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="4:7">
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
+    <row r="9" spans="4:6">
+      <c r="D9" t="s">
+        <v>442</v>
+      </c>
+      <c r="E9" t="s">
         <v>120</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="4:7">
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
+    <row r="10" spans="4:6">
+      <c r="D10" t="s">
+        <v>443</v>
+      </c>
+      <c r="E10" t="s">
         <v>121</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
+    <row r="11" spans="4:6">
+      <c r="D11" t="s">
+        <v>444</v>
+      </c>
+      <c r="E11" t="s">
         <v>122</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="12" spans="4:6">
+      <c r="D12" t="s">
+        <v>445</v>
+      </c>
+      <c r="E12" t="s">
         <v>123</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="13" spans="4:6">
+      <c r="D13" t="s">
+        <v>446</v>
+      </c>
+      <c r="E13" t="s">
         <v>124</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
+    <row r="14" spans="4:6">
+      <c r="D14" t="s">
+        <v>447</v>
+      </c>
+      <c r="E14" t="s">
         <v>125</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
-      <c r="F13" t="s">
+    <row r="15" spans="4:6">
+      <c r="D15" t="s">
+        <v>448</v>
+      </c>
+      <c r="E15" t="s">
         <v>126</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
-      <c r="F14" t="s">
+    <row r="16" spans="4:6">
+      <c r="D16" t="s">
+        <v>449</v>
+      </c>
+      <c r="E16" t="s">
         <v>127</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="4:7">
-      <c r="F15" t="s">
+    <row r="17" spans="4:6">
+      <c r="D17" t="s">
+        <v>450</v>
+      </c>
+      <c r="E17" t="s">
         <v>128</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="4:7">
-      <c r="F16" t="s">
+    <row r="18" spans="4:6">
+      <c r="D18" t="s">
+        <v>451</v>
+      </c>
+      <c r="E18" t="s">
         <v>129</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
-      <c r="F17" t="s">
+    <row r="19" spans="4:6">
+      <c r="D19" t="s">
+        <v>452</v>
+      </c>
+      <c r="E19" t="s">
         <v>130</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="6:7">
-      <c r="F18" t="s">
+    <row r="20" spans="4:6">
+      <c r="D20" t="s">
+        <v>453</v>
+      </c>
+      <c r="E20" t="s">
         <v>131</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="6:7">
-      <c r="F19" t="s">
+    <row r="21" spans="4:6">
+      <c r="D21" t="s">
+        <v>454</v>
+      </c>
+      <c r="E21" t="s">
         <v>132</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="6:7">
-      <c r="F20" t="s">
+    <row r="22" spans="4:6">
+      <c r="D22" t="s">
+        <v>455</v>
+      </c>
+      <c r="E22" t="s">
         <v>133</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="6:7">
-      <c r="F21" t="s">
+    <row r="23" spans="4:6">
+      <c r="D23" t="s">
+        <v>456</v>
+      </c>
+      <c r="E23" t="s">
         <v>134</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="6:7">
-      <c r="F22" t="s">
+    <row r="24" spans="4:6">
+      <c r="D24" t="s">
+        <v>457</v>
+      </c>
+      <c r="E24" t="s">
         <v>135</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="6:7">
-      <c r="F23" t="s">
+    <row r="25" spans="4:6">
+      <c r="D25" t="s">
+        <v>458</v>
+      </c>
+      <c r="E25" t="s">
         <v>136</v>
       </c>
-      <c r="G23" t="s">
+      <c r="F25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="6:7">
-      <c r="F24" t="s">
+    <row r="26" spans="4:6">
+      <c r="D26" t="s">
+        <v>459</v>
+      </c>
+      <c r="E26" t="s">
         <v>137</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F26" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="6:7">
-      <c r="F25" t="s">
+    <row r="27" spans="4:6">
+      <c r="D27" t="s">
+        <v>460</v>
+      </c>
+      <c r="E27" t="s">
         <v>138</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="6:7">
-      <c r="F26" t="s">
+    <row r="28" spans="4:6">
+      <c r="D28" t="s">
+        <v>461</v>
+      </c>
+      <c r="E28" t="s">
         <v>139</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="6:7">
-      <c r="F27" t="s">
+    <row r="29" spans="4:6">
+      <c r="D29" t="s">
+        <v>462</v>
+      </c>
+      <c r="E29" t="s">
         <v>140</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="6:7">
-      <c r="F28" t="s">
+    <row r="30" spans="4:6">
+      <c r="D30" t="s">
+        <v>463</v>
+      </c>
+      <c r="E30" t="s">
         <v>141</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F30" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="6:7">
-      <c r="F29" t="s">
+    <row r="31" spans="4:6">
+      <c r="D31" t="s">
+        <v>464</v>
+      </c>
+      <c r="E31" t="s">
         <v>142</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="6:7">
-      <c r="F30" t="s">
+    <row r="32" spans="4:6">
+      <c r="D32" t="s">
+        <v>465</v>
+      </c>
+      <c r="E32" t="s">
         <v>143</v>
       </c>
-      <c r="G30" t="s">
+      <c r="F32" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="6:7">
-      <c r="F31" t="s">
+    <row r="33" spans="4:6">
+      <c r="D33" t="s">
+        <v>466</v>
+      </c>
+      <c r="E33" t="s">
         <v>144</v>
       </c>
-      <c r="G31" t="s">
+      <c r="F33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="6:7">
-      <c r="F32" t="s">
+    <row r="34" spans="4:6">
+      <c r="D34" t="s">
+        <v>467</v>
+      </c>
+      <c r="E34" t="s">
         <v>145</v>
       </c>
-      <c r="G32" t="s">
+      <c r="F34" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="6:7">
-      <c r="F33" t="s">
+    <row r="35" spans="4:6">
+      <c r="D35" t="s">
+        <v>468</v>
+      </c>
+      <c r="E35" t="s">
         <v>146</v>
       </c>
-      <c r="G33" t="s">
+      <c r="F35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="6:7">
-      <c r="F34" t="s">
+    <row r="36" spans="4:6">
+      <c r="D36" t="s">
+        <v>469</v>
+      </c>
+      <c r="E36" t="s">
         <v>147</v>
       </c>
-      <c r="G34" t="s">
+      <c r="F36" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="6:7">
-      <c r="F35" t="s">
+    <row r="37" spans="4:6">
+      <c r="D37" t="s">
+        <v>470</v>
+      </c>
+      <c r="E37" t="s">
         <v>148</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="6:7">
-      <c r="F36" t="s">
+    <row r="38" spans="4:6">
+      <c r="D38" t="s">
+        <v>471</v>
+      </c>
+      <c r="E38" t="s">
         <v>149</v>
       </c>
-      <c r="G36" t="s">
+      <c r="F38" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="6:7">
-      <c r="F37" t="s">
+    <row r="39" spans="4:6">
+      <c r="D39" t="s">
+        <v>472</v>
+      </c>
+      <c r="E39" t="s">
         <v>150</v>
       </c>
-      <c r="G37" t="s">
+      <c r="F39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="6:7">
-      <c r="F38" t="s">
+    <row r="40" spans="4:6">
+      <c r="D40" t="s">
+        <v>473</v>
+      </c>
+      <c r="E40" t="s">
         <v>151</v>
       </c>
-      <c r="G38" t="s">
+      <c r="F40" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="6:7">
-      <c r="F39" t="s">
+    <row r="41" spans="4:6">
+      <c r="D41" t="s">
+        <v>474</v>
+      </c>
+      <c r="E41" t="s">
         <v>152</v>
       </c>
-      <c r="G39" t="s">
+      <c r="F41" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="6:7">
-      <c r="F40" t="s">
+    <row r="42" spans="4:6">
+      <c r="D42" t="s">
+        <v>475</v>
+      </c>
+      <c r="E42" t="s">
         <v>153</v>
       </c>
-      <c r="G40" t="s">
+      <c r="F42" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="6:7">
-      <c r="F41" t="s">
+    <row r="43" spans="4:6">
+      <c r="D43" t="s">
+        <v>476</v>
+      </c>
+      <c r="E43" t="s">
         <v>154</v>
       </c>
-      <c r="G41" t="s">
+      <c r="F43" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="6:7">
-      <c r="F42" t="s">
+    <row r="44" spans="4:6">
+      <c r="D44" t="s">
+        <v>477</v>
+      </c>
+      <c r="E44" t="s">
         <v>155</v>
       </c>
-      <c r="G42" t="s">
+      <c r="F44" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="6:7">
-      <c r="F43" t="s">
+    <row r="45" spans="4:6">
+      <c r="D45" t="s">
+        <v>478</v>
+      </c>
+      <c r="E45" t="s">
         <v>156</v>
       </c>
-      <c r="G43" t="s">
+      <c r="F45" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="6:7">
-      <c r="F44" t="s">
+    <row r="46" spans="4:6">
+      <c r="D46" t="s">
+        <v>479</v>
+      </c>
+      <c r="E46" t="s">
         <v>157</v>
       </c>
-      <c r="G44" t="s">
+      <c r="F46" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="6:7">
-      <c r="F45" t="s">
+    <row r="47" spans="4:6">
+      <c r="D47" t="s">
+        <v>480</v>
+      </c>
+      <c r="E47" t="s">
         <v>158</v>
       </c>
-      <c r="G45" t="s">
+      <c r="F47" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="6:7">
-      <c r="F46" t="s">
+    <row r="48" spans="4:6">
+      <c r="D48" t="s">
+        <v>481</v>
+      </c>
+      <c r="E48" t="s">
         <v>159</v>
       </c>
-      <c r="G46" t="s">
+      <c r="F48" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="6:7">
-      <c r="F47" t="s">
+    <row r="49" spans="4:6">
+      <c r="D49" t="s">
+        <v>482</v>
+      </c>
+      <c r="E49" t="s">
         <v>160</v>
       </c>
-      <c r="G47" t="s">
+      <c r="F49" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="6:7">
-      <c r="F48" t="s">
+    <row r="50" spans="4:6">
+      <c r="D50" t="s">
+        <v>483</v>
+      </c>
+      <c r="E50" t="s">
         <v>161</v>
       </c>
-      <c r="G48" t="s">
+      <c r="F50" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="6:7">
-      <c r="F49" t="s">
+    <row r="51" spans="4:6">
+      <c r="D51" t="s">
+        <v>484</v>
+      </c>
+      <c r="E51" t="s">
         <v>162</v>
       </c>
-      <c r="G49" t="s">
+      <c r="F51" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="6:7">
-      <c r="F50" t="s">
+    <row r="52" spans="4:6">
+      <c r="D52" t="s">
+        <v>485</v>
+      </c>
+      <c r="E52" t="s">
         <v>163</v>
       </c>
-      <c r="G50" t="s">
+      <c r="F52" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="6:7">
-      <c r="F51" t="s">
+    <row r="53" spans="4:6">
+      <c r="D53" t="s">
+        <v>486</v>
+      </c>
+      <c r="E53" t="s">
         <v>164</v>
       </c>
-      <c r="G51" t="s">
+      <c r="F53" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="6:7">
-      <c r="F52" t="s">
+    <row r="54" spans="4:6">
+      <c r="D54" t="s">
+        <v>487</v>
+      </c>
+      <c r="E54" t="s">
         <v>165</v>
       </c>
-      <c r="G52" t="s">
+      <c r="F54" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="6:7">
-      <c r="F53" t="s">
+    <row r="55" spans="4:6">
+      <c r="D55" t="s">
+        <v>488</v>
+      </c>
+      <c r="E55" t="s">
         <v>166</v>
       </c>
-      <c r="G53" t="s">
+      <c r="F55" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="6:7">
-      <c r="F54" t="s">
+    <row r="56" spans="4:6">
+      <c r="D56" t="s">
+        <v>489</v>
+      </c>
+      <c r="E56" t="s">
         <v>167</v>
       </c>
-      <c r="G54" t="s">
+      <c r="F56" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="6:7">
-      <c r="F55" t="s">
+    <row r="57" spans="4:6">
+      <c r="D57" t="s">
+        <v>490</v>
+      </c>
+      <c r="E57" t="s">
         <v>168</v>
       </c>
-      <c r="G55" t="s">
+      <c r="F57" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="6:7">
-      <c r="F56" t="s">
+    <row r="58" spans="4:6">
+      <c r="D58" t="s">
+        <v>491</v>
+      </c>
+      <c r="E58" t="s">
         <v>169</v>
       </c>
-      <c r="G56" t="s">
+      <c r="F58" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="6:7">
-      <c r="F57" t="s">
+    <row r="59" spans="4:6">
+      <c r="D59" t="s">
+        <v>492</v>
+      </c>
+      <c r="E59" t="s">
         <v>170</v>
       </c>
-      <c r="G57" t="s">
+      <c r="F59" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="6:7">
-      <c r="F58" t="s">
+    <row r="60" spans="4:6">
+      <c r="D60" t="s">
+        <v>493</v>
+      </c>
+      <c r="E60" t="s">
         <v>171</v>
       </c>
-      <c r="G58" t="s">
+      <c r="F60" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="6:7">
-      <c r="F59" t="s">
+    <row r="61" spans="4:6">
+      <c r="D61" t="s">
+        <v>494</v>
+      </c>
+      <c r="E61" t="s">
         <v>172</v>
       </c>
-      <c r="G59" t="s">
+      <c r="F61" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="6:7">
-      <c r="F60" t="s">
+    <row r="62" spans="4:6">
+      <c r="D62" t="s">
+        <v>495</v>
+      </c>
+      <c r="E62" t="s">
         <v>173</v>
       </c>
-      <c r="G60" t="s">
+      <c r="F62" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="6:7">
-      <c r="F61" t="s">
+    <row r="63" spans="4:6">
+      <c r="D63" t="s">
+        <v>496</v>
+      </c>
+      <c r="E63" t="s">
         <v>174</v>
       </c>
-      <c r="G61" t="s">
+      <c r="F63" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="6:7">
-      <c r="F62" t="s">
+    <row r="64" spans="4:6">
+      <c r="D64" t="s">
+        <v>497</v>
+      </c>
+      <c r="E64" t="s">
         <v>175</v>
       </c>
-      <c r="G62" t="s">
+      <c r="F64" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="6:7">
-      <c r="F63" t="s">
+    <row r="65" spans="4:6">
+      <c r="D65" t="s">
+        <v>498</v>
+      </c>
+      <c r="E65" t="s">
         <v>176</v>
       </c>
-      <c r="G63" t="s">
+      <c r="F65" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="6:7">
-      <c r="F64" t="s">
+    <row r="66" spans="4:6">
+      <c r="D66" t="s">
+        <v>499</v>
+      </c>
+      <c r="E66" t="s">
         <v>177</v>
       </c>
-      <c r="G64" t="s">
+      <c r="F66" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="6:7">
-      <c r="F65" t="s">
+    <row r="67" spans="4:6">
+      <c r="D67" t="s">
+        <v>500</v>
+      </c>
+      <c r="E67" t="s">
         <v>178</v>
       </c>
-      <c r="G65" t="s">
+      <c r="F67" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="6:7">
-      <c r="F66" t="s">
+    <row r="68" spans="4:6">
+      <c r="D68" t="s">
+        <v>501</v>
+      </c>
+      <c r="E68" t="s">
         <v>179</v>
       </c>
-      <c r="G66" t="s">
+      <c r="F68" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="6:7">
-      <c r="F67" t="s">
+    <row r="69" spans="4:6">
+      <c r="D69" t="s">
+        <v>502</v>
+      </c>
+      <c r="E69" t="s">
         <v>180</v>
       </c>
-      <c r="G67" t="s">
+      <c r="F69" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="6:7">
-      <c r="F68" t="s">
+    <row r="70" spans="4:6">
+      <c r="D70" t="s">
+        <v>503</v>
+      </c>
+      <c r="E70" t="s">
         <v>181</v>
       </c>
-      <c r="G68" t="s">
+      <c r="F70" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="6:7">
-      <c r="F69" t="s">
+    <row r="71" spans="4:6">
+      <c r="D71" t="s">
+        <v>504</v>
+      </c>
+      <c r="E71" t="s">
         <v>182</v>
       </c>
-      <c r="G69" t="s">
+      <c r="F71" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="6:7">
-      <c r="F70" t="s">
+    <row r="72" spans="4:6">
+      <c r="D72" t="s">
+        <v>505</v>
+      </c>
+      <c r="E72" t="s">
         <v>183</v>
       </c>
-      <c r="G70" t="s">
+      <c r="F72" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="6:7">
-      <c r="F71" t="s">
+    <row r="73" spans="4:6">
+      <c r="D73" t="s">
+        <v>506</v>
+      </c>
+      <c r="E73" t="s">
         <v>184</v>
       </c>
-      <c r="G71" t="s">
+      <c r="F73" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="6:7">
-      <c r="F72" t="s">
+    <row r="74" spans="4:6">
+      <c r="D74" t="s">
+        <v>507</v>
+      </c>
+      <c r="E74" t="s">
         <v>185</v>
       </c>
-      <c r="G72" t="s">
+      <c r="F74" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="6:7">
-      <c r="F73" t="s">
+    <row r="75" spans="4:6">
+      <c r="D75" t="s">
+        <v>508</v>
+      </c>
+      <c r="E75" t="s">
         <v>186</v>
       </c>
-      <c r="G73" t="s">
+      <c r="F75" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="6:7">
-      <c r="F74" t="s">
+    <row r="76" spans="4:6">
+      <c r="D76" t="s">
+        <v>509</v>
+      </c>
+      <c r="E76" t="s">
         <v>187</v>
       </c>
-      <c r="G74" t="s">
+      <c r="F76" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="6:7">
-      <c r="F75" t="s">
+    <row r="77" spans="4:6">
+      <c r="D77" t="s">
+        <v>510</v>
+      </c>
+      <c r="E77" t="s">
         <v>188</v>
       </c>
-      <c r="G75" t="s">
+      <c r="F77" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="6:7">
-      <c r="F76" t="s">
+    <row r="78" spans="4:6">
+      <c r="D78" t="s">
+        <v>511</v>
+      </c>
+      <c r="E78" t="s">
         <v>189</v>
       </c>
-      <c r="G76" t="s">
+      <c r="F78" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="77" spans="6:7">
-      <c r="F77" t="s">
+    <row r="79" spans="4:6">
+      <c r="D79" t="s">
+        <v>512</v>
+      </c>
+      <c r="E79" t="s">
         <v>190</v>
       </c>
-      <c r="G77" t="s">
+      <c r="F79" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="6:7">
-      <c r="F78" t="s">
+    <row r="80" spans="4:6">
+      <c r="D80" t="s">
+        <v>513</v>
+      </c>
+      <c r="E80" t="s">
         <v>191</v>
       </c>
-      <c r="G78" t="s">
+      <c r="F80" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="79" spans="6:7">
-      <c r="F79" t="s">
+    <row r="81" spans="4:6">
+      <c r="D81" t="s">
+        <v>514</v>
+      </c>
+      <c r="E81" t="s">
         <v>192</v>
       </c>
-      <c r="G79" t="s">
+      <c r="F81" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="80" spans="6:7">
-      <c r="F80" t="s">
+    <row r="82" spans="4:6">
+      <c r="D82" t="s">
+        <v>515</v>
+      </c>
+      <c r="E82" t="s">
         <v>193</v>
       </c>
-      <c r="G80" t="s">
+      <c r="F82" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6">
+      <c r="D83" t="s">
+        <v>516</v>
+      </c>
+      <c r="E83" t="s">
+        <v>194</v>
+      </c>
+      <c r="F83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6">
+      <c r="D84" t="s">
+        <v>517</v>
+      </c>
+      <c r="E84" t="s">
+        <v>195</v>
+      </c>
+      <c r="F84" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6">
+      <c r="D85" t="s">
+        <v>518</v>
+      </c>
+      <c r="E85" t="s">
+        <v>196</v>
+      </c>
+      <c r="F85" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6">
+      <c r="D86" t="s">
+        <v>519</v>
+      </c>
+      <c r="E86" t="s">
+        <v>197</v>
+      </c>
+      <c r="F86" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6">
+      <c r="D87" t="s">
+        <v>520</v>
+      </c>
+      <c r="E87" t="s">
+        <v>198</v>
+      </c>
+      <c r="F87" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6">
+      <c r="E88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F88" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6">
+      <c r="E89" t="s">
+        <v>200</v>
+      </c>
+      <c r="F89" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6">
+      <c r="E90" t="s">
+        <v>201</v>
+      </c>
+      <c r="F90" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6">
+      <c r="E91" t="s">
+        <v>202</v>
+      </c>
+      <c r="F91" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6">
+      <c r="E92" t="s">
+        <v>203</v>
+      </c>
+      <c r="F92" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6">
+      <c r="E93" t="s">
+        <v>204</v>
+      </c>
+      <c r="F93" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6">
+      <c r="E94" t="s">
+        <v>205</v>
+      </c>
+      <c r="F94" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6">
+      <c r="E95" t="s">
+        <v>206</v>
+      </c>
+      <c r="F95" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6">
+      <c r="E96" t="s">
+        <v>207</v>
+      </c>
+      <c r="F96" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6">
+      <c r="E97" t="s">
+        <v>208</v>
+      </c>
+      <c r="F97" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6">
+      <c r="E98" t="s">
+        <v>209</v>
+      </c>
+      <c r="F98" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6">
+      <c r="E99" t="s">
+        <v>210</v>
+      </c>
+      <c r="F99" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6">
+      <c r="E100" t="s">
+        <v>211</v>
+      </c>
+      <c r="F100" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6">
+      <c r="E101" t="s">
+        <v>212</v>
+      </c>
+      <c r="F101" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6">
+      <c r="E102" t="s">
+        <v>213</v>
+      </c>
+      <c r="F102" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6">
+      <c r="E103" t="s">
+        <v>214</v>
+      </c>
+      <c r="F103" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6">
+      <c r="E104" t="s">
+        <v>215</v>
+      </c>
+      <c r="F104" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6">
+      <c r="E105" t="s">
+        <v>216</v>
+      </c>
+      <c r="F105" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6">
+      <c r="E106" t="s">
+        <v>217</v>
+      </c>
+      <c r="F106" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6">
+      <c r="E107" t="s">
+        <v>218</v>
+      </c>
+      <c r="F107" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6">
+      <c r="E108" t="s">
+        <v>219</v>
+      </c>
+      <c r="F108" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6">
+      <c r="E109" t="s">
+        <v>220</v>
+      </c>
+      <c r="F109" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6">
+      <c r="E110" t="s">
+        <v>221</v>
+      </c>
+      <c r="F110" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3670,7 +4518,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C7D6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="988A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3685,28 +4533,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="54.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="42" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="247.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="37" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="93.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="183.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="97.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="102.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="185.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="96.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="208.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="247.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="37" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="93.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="183.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="97.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="102.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="185.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="96.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="208.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3714,57 +4562,54 @@
         <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>94</v>
@@ -3773,7 +4618,7 @@
         <v>96</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>98</v>
@@ -3802,19 +4647,16 @@
       <c r="O2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>95</v>
@@ -3823,7 +4665,7 @@
         <v>97</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>99</v>
@@ -3852,11 +4694,8 @@
       <c r="O3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -3874,26 +4713,25 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F56F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="86CF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A4:O4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:P4">
+  <conditionalFormatting sqref="A1:O4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
+      <formula1>HiddenDropdowns!$E$5:$E$110</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
-      <formula1>HiddenDropdowns!$F$5:$F$80</formula1>
+      <formula1>HiddenDropdowns!$F$5:$F$110</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="G5:G1005">
-      <formula1>HiddenDropdowns!$G$5:$G$80</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="H5:H1005">
       <formula1>"Air Dried,Dry Ice,Ethanol/Dry Ice Slurry,Lyophilised,Not Applicable,Not Collected,Not Provided,Other,Rnalater,Snap Frozen"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3927,34 +4765,34 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3962,34 +4800,34 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3997,34 +4835,34 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4043,7 +4881,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="98B4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CC29" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -4078,8 +4916,8 @@
     <col min="8" max="8" width="99.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="105.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="87.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="182.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -4093,43 +4931,43 @@
         <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4137,46 +4975,46 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4184,46 +5022,46 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4246,7 +5084,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9841" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D1A4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -4269,7 +5107,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4301,249 +5139,259 @@
     <col min="24" max="24" width="61.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="64.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="66.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="61" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+        <v>342</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>391</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+        <v>392</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -4572,13 +5420,14 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D7B2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C457" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:Z4"/>
+    <mergeCell ref="A4:AA4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:Z4">
+  <conditionalFormatting sqref="A1:AA4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -4638,43 +5487,43 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4682,43 +5531,43 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4726,43 +5575,43 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4784,7 +5633,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="89F4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D208" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4793,7 +5642,10 @@
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
+      <formula1>HiddenDropdowns!$D$5:$D$87</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
       <formula1>"Other,Paired,Single,Vector"</formula1>
     </dataValidation>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
@@ -2496,7 +2496,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="9F76" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E8A4" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2577,7 +2577,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A805" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8752" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2784,7 +2784,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A4BF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DF8D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2860,7 +2860,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EB91" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="818C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2982,7 +2982,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8647" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E56A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3188,7 +3188,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9675" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B9DC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3277,7 +3277,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="84FF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FC95" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4518,7 +4518,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="988A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF31" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4715,7 +4715,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="86CF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="84E4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -4881,7 +4881,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CC29" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D2A7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -5084,7 +5084,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D1A4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B1BB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -5423,7 +5423,7 @@
       <c r="AA4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C457" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C24B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AA4"/>
   </mergeCells>
@@ -5633,7 +5633,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D208" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B211" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
@@ -1950,16 +1950,16 @@
     <t>index_2_file</t>
   </si>
   <si>
-    <t>read_1_checksum</t>
-  </si>
-  <si>
-    <t>read_2_checksum</t>
-  </si>
-  <si>
-    <t>index_1_checksum</t>
-  </si>
-  <si>
-    <t>index_2_checksum</t>
+    <t>read_1_file_checksum</t>
+  </si>
+  <si>
+    <t>read_2_file_checksum</t>
+  </si>
+  <si>
+    <t>index_1_file_checksum</t>
+  </si>
+  <si>
+    <t>index_2_file_checksum</t>
   </si>
   <si>
     <t>white_list_barcode_file</t>
@@ -1980,10 +1980,10 @@
     <t>index_1_file (optional)</t>
   </si>
   <si>
-    <t>read_2_checksum (optional)</t>
-  </si>
-  <si>
-    <t>index_2_checksum (optional)</t>
+    <t>read_2_file_checksum (optional)</t>
+  </si>
+  <si>
+    <t>index_2_file_checksum (optional)</t>
   </si>
   <si>
     <t>white_list_barcode_file (optional)</t>
@@ -2007,13 +2007,13 @@
     <t>e.g. file2_r2.fastq.gz</t>
   </si>
   <si>
-    <t>The name or accession of the file that contains index 1.</t>
+    <t>The name of the file that contains index 1.</t>
   </si>
   <si>
     <t>e.g. file1_i1.fastq.gz</t>
   </si>
   <si>
-    <t>The name or accession of the file that contains index 2.</t>
+    <t>The name of the file that contains index 2.</t>
   </si>
   <si>
     <t>e.g. file2_i2.fastq.gz</t>
@@ -2496,7 +2496,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E8A4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FD82" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2577,7 +2577,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8752" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8A95" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2784,7 +2784,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DF8D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9D88" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2860,7 +2860,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="818C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F3CD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2982,7 +2982,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E56A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D883" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3008,7 +3008,7 @@
     <col min="3" max="3" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="38.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="172.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="174.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -3188,7 +3188,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B9DC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF8C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3277,7 +3277,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FC95" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DA44" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4518,7 +4518,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FF31" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B6F8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4715,7 +4715,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="84E4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9444" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -4881,7 +4881,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D2A7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F0A2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -5084,7 +5084,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B1BB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D421" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -5423,7 +5423,7 @@
       <c r="AA4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C24B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DFD4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AA4"/>
   </mergeCells>
@@ -5633,7 +5633,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B211" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA03" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
+++ b/dist/checklists/xlsx/tol/sc_rnaseq_tol_v0.1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="675">
   <si>
     <t>key</t>
   </si>
@@ -1930,9 +1930,6 @@
   </si>
   <si>
     <t>e.g. Barcode information used in multiplexing protocols is provided in a separate file, which can be accessed at: https://example.com/barcode_data.csv.</t>
-  </si>
-  <si>
-    <t>lib_prep_id</t>
   </si>
   <si>
     <t>file_id</t>
@@ -2496,7 +2493,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="FD82" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9801" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2577,7 +2574,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8A95" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8CDE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2784,7 +2781,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9D88" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="98AF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2860,7 +2857,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F3CD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DBFF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2982,7 +2979,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D883" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9317" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3022,49 +3019,49 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>634</v>
+        <v>304</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>395</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>636</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3078,43 +3075,43 @@
         <v>416</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>655</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>668</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3131,40 +3128,40 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3188,7 +3185,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FF8C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B11F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3277,7 +3274,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DA44" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8248" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4518,7 +4515,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B6F8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8DBC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4715,7 +4712,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9444" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FC5C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -4881,7 +4878,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F0A2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CF53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -5084,7 +5081,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D421" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8206" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -5423,7 +5420,7 @@
       <c r="AA4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DFD4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F492" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AA4"/>
   </mergeCells>
@@ -5633,7 +5630,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA03" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A7FC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
